--- a/results/ML/MLR_num_PSU_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/MLR_num_PSU_vs_Desertor/backwardElimination.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_num_PSU_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_num_PSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8614FD2D-2AB7-4513-AB5D-B9D795A25820}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6AB8C7-2A8D-4572-A61A-329EC4C6778E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,13 @@
     <sheet name="5" sheetId="1" r:id="rId1"/>
     <sheet name="4" sheetId="2" r:id="rId2"/>
     <sheet name="3" sheetId="3" r:id="rId3"/>
-    <sheet name="2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
   <si>
     <t>Columns on Logic</t>
   </si>
@@ -51,8 +50,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.070
 Model:                            OLS   Adj. R-squared:                  0.061
 Method:                 Least Squares   F-statistic:                     7.970
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           2.95e-07
-Time:                        23:10:07   Log-Likelihood:                -321.48
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.95e-07
+Time:                        20:51:41   Log-Likelihood:                -321.48
 No. Observations:                 537   AIC:                             655.0
 Df Residuals:                     531   BIC:                             680.7
 Df Model:                           5                                         
@@ -83,8 +82,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.070
 Model:                            OLS   Adj. R-squared:                  0.063
 Method:                 Least Squares   F-statistic:                     9.951
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           9.02e-08
-Time:                        23:10:07   Log-Likelihood:                -321.54
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           9.02e-08
+Time:                        20:51:41   Log-Likelihood:                -321.54
 No. Observations:                 537   AIC:                             653.1
 Df Residuals:                     532   BIC:                             674.5
 Df Model:                           4                                         
@@ -111,41 +110,11 @@
   <si>
     <t xml:space="preserve">                            OLS Regression Results                            
 ==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.066
-Model:                            OLS   Adj. R-squared:                  0.060
-Method:                 Least Squares   F-statistic:                     12.49
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           6.63e-08
-Time:                        23:10:07   Log-Likelihood:                -322.67
-No. Observations:                 537   AIC:                             653.3
-Df Residuals:                     533   BIC:                             670.5
-Df Model:                           3                                         
-Covariance Type:            nonrobust                                         
-==============================================================================
-                 coef    std err          t      P&gt;|t|      [0.025      0.975]
-------------------------------------------------------------------------------
-Ones           1.5483      0.275      5.635      0.000       1.009       2.088
-NEMScr        -0.0004      0.000     -1.586      0.113      -0.001    9.86e-05
-LangScr        0.0009      0.000      2.600      0.010       0.000       0.002
-MathScr       -0.0026      0.000     -5.681      0.000      -0.003      -0.002
-==============================================================================
-Omnibus:                      205.082   Durbin-Watson:                   1.881
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               81.917
-Skew:                           0.792   Prob(JB):                     1.63e-18
-Kurtosis:                       1.926   Cond. No.                     1.39e+04
-==============================================================================
-Warnings:
-[1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 1.39e+04. This might indicate that there are
-strong multicollinearity or other numerical problems.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
 Dep. Variable:               Desertor   R-squared:                       0.061
 Model:                            OLS   Adj. R-squared:                  0.058
 Method:                 Least Squares   F-statistic:                     17.43
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           4.65e-08
-Time:                        23:10:07   Log-Likelihood:                -323.93
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           4.65e-08
+Time:                        20:51:41   Log-Likelihood:                -323.93
 No. Observations:                 537   AIC:                             653.9
 Df Residuals:                     534   BIC:                             666.7
 Df Model:                           2                                         
@@ -672,50 +641,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="369.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="357" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="357" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/results/ML/MLR_num_PSU_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/MLR_num_PSU_vs_Desertor/backwardElimination.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_num_PSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6AB8C7-2A8D-4572-A61A-329EC4C6778E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4153F74B-AAF8-4726-9F12-D1639DB12BAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 Model:                            OLS   Adj. R-squared:                  0.061
 Method:                 Least Squares   F-statistic:                     7.970
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.95e-07
-Time:                        20:51:41   Log-Likelihood:                -321.48
+Time:                        20:59:42   Log-Likelihood:                -321.48
 No. Observations:                 537   AIC:                             655.0
 Df Residuals:                     531   BIC:                             680.7
 Df Model:                           5                                         
@@ -83,7 +83,7 @@
 Model:                            OLS   Adj. R-squared:                  0.063
 Method:                 Least Squares   F-statistic:                     9.951
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           9.02e-08
-Time:                        20:51:41   Log-Likelihood:                -321.54
+Time:                        20:59:42   Log-Likelihood:                -321.54
 No. Observations:                 537   AIC:                             653.1
 Df Residuals:                     532   BIC:                             674.5
 Df Model:                           4                                         
@@ -114,7 +114,7 @@
 Model:                            OLS   Adj. R-squared:                  0.058
 Method:                 Least Squares   F-statistic:                     17.43
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           4.65e-08
-Time:                        20:51:41   Log-Likelihood:                -323.93
+Time:                        20:59:43   Log-Likelihood:                -323.93
 No. Observations:                 537   AIC:                             653.9
 Df Residuals:                     534   BIC:                             666.7
 Df Model:                           2                                         

--- a/results/ML/MLR_num_PSU_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/MLR_num_PSU_vs_Desertor/backwardElimination.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_num_PSU_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_num_PSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4153F74B-AAF8-4726-9F12-D1639DB12BAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375A2EEE-D958-4FA5-A306-06AC2C7D1876}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,8 +50,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.070
 Model:                            OLS   Adj. R-squared:                  0.061
 Method:                 Least Squares   F-statistic:                     7.970
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.95e-07
-Time:                        20:59:42   Log-Likelihood:                -321.48
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           2.95e-07
+Time:                        16:11:11   Log-Likelihood:                -321.48
 No. Observations:                 537   AIC:                             655.0
 Df Residuals:                     531   BIC:                             680.7
 Df Model:                           5                                         
@@ -82,8 +82,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.070
 Model:                            OLS   Adj. R-squared:                  0.063
 Method:                 Least Squares   F-statistic:                     9.951
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           9.02e-08
-Time:                        20:59:42   Log-Likelihood:                -321.54
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           9.02e-08
+Time:                        16:11:11   Log-Likelihood:                -321.54
 No. Observations:                 537   AIC:                             653.1
 Df Residuals:                     532   BIC:                             674.5
 Df Model:                           4                                         
@@ -113,8 +113,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.061
 Model:                            OLS   Adj. R-squared:                  0.058
 Method:                 Least Squares   F-statistic:                     17.43
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           4.65e-08
-Time:                        20:59:43   Log-Likelihood:                -323.93
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           4.65e-08
+Time:                        16:11:11   Log-Likelihood:                -323.93
 No. Observations:                 537   AIC:                             653.9
 Df Residuals:                     534   BIC:                             666.7
 Df Model:                           2                                         

--- a/results/ML/MLR_num_PSU_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/MLR_num_PSU_vs_Desertor/backwardElimination.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_num_PSU_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_num_PSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375A2EEE-D958-4FA5-A306-06AC2C7D1876}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB3CB63-E048-4A06-8F79-D235C9AC7B83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,8 +50,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.070
 Model:                            OLS   Adj. R-squared:                  0.061
 Method:                 Least Squares   F-statistic:                     7.970
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           2.95e-07
-Time:                        16:11:11   Log-Likelihood:                -321.48
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           2.95e-07
+Time:                        23:18:49   Log-Likelihood:                -321.48
 No. Observations:                 537   AIC:                             655.0
 Df Residuals:                     531   BIC:                             680.7
 Df Model:                           5                                         
@@ -82,8 +82,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.070
 Model:                            OLS   Adj. R-squared:                  0.063
 Method:                 Least Squares   F-statistic:                     9.951
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           9.02e-08
-Time:                        16:11:11   Log-Likelihood:                -321.54
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           9.02e-08
+Time:                        23:18:49   Log-Likelihood:                -321.54
 No. Observations:                 537   AIC:                             653.1
 Df Residuals:                     532   BIC:                             674.5
 Df Model:                           4                                         
@@ -113,8 +113,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.061
 Model:                            OLS   Adj. R-squared:                  0.058
 Method:                 Least Squares   F-statistic:                     17.43
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           4.65e-08
-Time:                        16:11:11   Log-Likelihood:                -323.93
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           4.65e-08
+Time:                        23:18:49   Log-Likelihood:                -323.93
 No. Observations:                 537   AIC:                             653.9
 Df Residuals:                     534   BIC:                             666.7
 Df Model:                           2                                         

--- a/results/ML/MLR_num_PSU_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/MLR_num_PSU_vs_Desertor/backwardElimination.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_num_PSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB3CB63-E048-4A06-8F79-D235C9AC7B83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A65346-0527-4593-B30C-792FA327F774}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5" sheetId="1" r:id="rId1"/>
@@ -50,8 +50,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.070
 Model:                            OLS   Adj. R-squared:                  0.061
 Method:                 Least Squares   F-statistic:                     7.970
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           2.95e-07
-Time:                        23:18:49   Log-Likelihood:                -321.48
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           2.95e-07
+Time:                        20:48:41   Log-Likelihood:                -321.48
 No. Observations:                 537   AIC:                             655.0
 Df Residuals:                     531   BIC:                             680.7
 Df Model:                           5                                         
@@ -82,8 +82,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.070
 Model:                            OLS   Adj. R-squared:                  0.063
 Method:                 Least Squares   F-statistic:                     9.951
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           9.02e-08
-Time:                        23:18:49   Log-Likelihood:                -321.54
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           9.02e-08
+Time:                        20:48:41   Log-Likelihood:                -321.54
 No. Observations:                 537   AIC:                             653.1
 Df Residuals:                     532   BIC:                             674.5
 Df Model:                           4                                         
@@ -113,8 +113,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.061
 Model:                            OLS   Adj. R-squared:                  0.058
 Method:                 Least Squares   F-statistic:                     17.43
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           4.65e-08
-Time:                        23:18:49   Log-Likelihood:                -323.93
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           4.65e-08
+Time:                        20:48:41   Log-Likelihood:                -323.93
 No. Observations:                 537   AIC:                             653.9
 Df Residuals:                     534   BIC:                             666.7
 Df Model:                           2                                         

--- a/results/ML/MLR_num_PSU_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/MLR_num_PSU_vs_Desertor/backwardElimination.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_num_PSU_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_num_PSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A65346-0527-4593-B30C-792FA327F774}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85A12B8-8504-4637-ACC6-E73E91BAF3BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,8 +50,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.070
 Model:                            OLS   Adj. R-squared:                  0.061
 Method:                 Least Squares   F-statistic:                     7.970
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           2.95e-07
-Time:                        20:48:41   Log-Likelihood:                -321.48
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           2.95e-07
+Time:                        21:22:19   Log-Likelihood:                -321.48
 No. Observations:                 537   AIC:                             655.0
 Df Residuals:                     531   BIC:                             680.7
 Df Model:                           5                                         
@@ -82,8 +82,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.070
 Model:                            OLS   Adj. R-squared:                  0.063
 Method:                 Least Squares   F-statistic:                     9.951
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           9.02e-08
-Time:                        20:48:41   Log-Likelihood:                -321.54
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           9.02e-08
+Time:                        21:22:19   Log-Likelihood:                -321.54
 No. Observations:                 537   AIC:                             653.1
 Df Residuals:                     532   BIC:                             674.5
 Df Model:                           4                                         
@@ -113,8 +113,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.061
 Model:                            OLS   Adj. R-squared:                  0.058
 Method:                 Least Squares   F-statistic:                     17.43
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           4.65e-08
-Time:                        20:48:41   Log-Likelihood:                -323.93
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           4.65e-08
+Time:                        21:22:19   Log-Likelihood:                -323.93
 No. Observations:                 537   AIC:                             653.9
 Df Residuals:                     534   BIC:                             666.7
 Df Model:                           2                                         

--- a/results/ML/MLR_num_PSU_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/MLR_num_PSU_vs_Desertor/backwardElimination.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_num_PSU_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_num_PSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85A12B8-8504-4637-ACC6-E73E91BAF3BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FD9F1F-C404-4034-ACFD-A6E0DEF2CC59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5" sheetId="1" r:id="rId1"/>
@@ -50,8 +50,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.070
 Model:                            OLS   Adj. R-squared:                  0.061
 Method:                 Least Squares   F-statistic:                     7.970
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           2.95e-07
-Time:                        21:22:19   Log-Likelihood:                -321.48
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           2.95e-07
+Time:                        19:07:24   Log-Likelihood:                -321.48
 No. Observations:                 537   AIC:                             655.0
 Df Residuals:                     531   BIC:                             680.7
 Df Model:                           5                                         
@@ -82,8 +82,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.070
 Model:                            OLS   Adj. R-squared:                  0.063
 Method:                 Least Squares   F-statistic:                     9.951
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           9.02e-08
-Time:                        21:22:19   Log-Likelihood:                -321.54
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           9.02e-08
+Time:                        19:07:24   Log-Likelihood:                -321.54
 No. Observations:                 537   AIC:                             653.1
 Df Residuals:                     532   BIC:                             674.5
 Df Model:                           4                                         
@@ -113,8 +113,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.061
 Model:                            OLS   Adj. R-squared:                  0.058
 Method:                 Least Squares   F-statistic:                     17.43
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           4.65e-08
-Time:                        21:22:19   Log-Likelihood:                -323.93
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           4.65e-08
+Time:                        19:07:25   Log-Likelihood:                -323.93
 No. Observations:                 537   AIC:                             653.9
 Df Residuals:                     534   BIC:                             666.7
 Df Model:                           2                                         
